--- a/other/완료보고서 자료.xlsx
+++ b/other/완료보고서 자료.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gpaj1\Desktop\2022-2\Beauty\other\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\java1\Desktop\Beauty\other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCCD8ADA-7AA1-4E8A-AEBA-5A15D38B831E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="API" sheetId="1" r:id="rId1"/>
     <sheet name="요구사항정의서" sheetId="2" r:id="rId2"/>
     <sheet name="템플릿목록" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -921,7 +920,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
@@ -1271,7 +1270,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
@@ -1937,11 +1936,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{274F2B3C-189D-422D-BDD1-6EAD16700B82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A20" sqref="A20:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2118,11 +2117,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D933CC15-3B28-412F-96FB-6CA9D31670AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
